--- a/output10.xlsx
+++ b/output10.xlsx
@@ -725,7 +725,7 @@
         <v>24</v>
       </c>
       <c r="D18">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -750,7 +750,7 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D20">
         <v>60</v>
@@ -803,13 +803,13 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C24">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D24">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -831,13 +831,13 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="C26">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D26">
-        <v>14</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -845,13 +845,13 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="C27">
         <v>32</v>
       </c>
       <c r="D27">
-        <v>59</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -859,13 +859,13 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="C28">
         <v>30</v>
       </c>
       <c r="D28">
-        <v>22</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -873,13 +873,13 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C29">
         <v>44</v>
       </c>
       <c r="D29">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -887,13 +887,13 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>78</v>
+        <v>20</v>
       </c>
       <c r="C30">
         <v>2</v>
       </c>
       <c r="D30">
-        <v>21</v>
+        <v>78</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -901,13 +901,13 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>1</v>
+        <v>92</v>
       </c>
       <c r="C31">
         <v>7</v>
       </c>
       <c r="D31">
-        <v>92</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -915,13 +915,13 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C32">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D32">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -929,13 +929,13 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C33">
         <v>33</v>
       </c>
       <c r="D33">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -943,13 +943,13 @@
         <v>32</v>
       </c>
       <c r="B34">
+        <v>26</v>
+      </c>
+      <c r="C34">
         <v>46</v>
       </c>
-      <c r="C34">
-        <v>29</v>
-      </c>
       <c r="D34">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -957,13 +957,13 @@
         <v>33</v>
       </c>
       <c r="B35">
+        <v>28</v>
+      </c>
+      <c r="C35">
+        <v>37</v>
+      </c>
+      <c r="D35">
         <v>35</v>
-      </c>
-      <c r="C35">
-        <v>28</v>
-      </c>
-      <c r="D35">
-        <v>37</v>
       </c>
     </row>
   </sheetData>
